--- a/Code/Results/Cases/Case_2_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.434651755948408</v>
+        <v>1.165638061119211</v>
       </c>
       <c r="C2">
-        <v>0.1281508971488137</v>
+        <v>0.04494834593693042</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03481017965543742</v>
+        <v>0.05070288413446633</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.000842694969501051</v>
+        <v>0.002565582288970012</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.010272656837344</v>
+        <v>1.743079149791846</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.387970728152169</v>
+        <v>0.9663782970679051</v>
       </c>
       <c r="L2">
-        <v>0.2871922215772003</v>
+        <v>0.2567060454407226</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.591480732383665</v>
+        <v>2.900895565848131</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.261927117803737</v>
+        <v>1.12590394751075</v>
       </c>
       <c r="C3">
-        <v>0.1105350776502121</v>
+        <v>0.04002713358481458</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03174613701161277</v>
+        <v>0.05018988964175719</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.000848935895491748</v>
+        <v>0.002569468254315551</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9893581772325675</v>
+        <v>1.745451868291909</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.215702217396085</v>
+        <v>0.9251258962553948</v>
       </c>
       <c r="L3">
-        <v>0.2550607044891109</v>
+        <v>0.2496110860395646</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.639570781654072</v>
+        <v>2.920152422369171</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.1574961184036</v>
+        <v>1.102162474457373</v>
       </c>
       <c r="C4">
-        <v>0.09990568994794558</v>
+        <v>0.03702309864640085</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02990514291388635</v>
+        <v>0.04989810068810385</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008528816146662862</v>
+        <v>0.002571980270614005</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9781686872001245</v>
+        <v>1.747624983234104</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.11157802357107</v>
+        <v>0.9003606299513081</v>
       </c>
       <c r="L4">
-        <v>0.2357092658933766</v>
+        <v>0.245401772636427</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.670957867787777</v>
+        <v>2.932765770687595</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.115306078924675</v>
+        <v>1.092652554004417</v>
       </c>
       <c r="C5">
-        <v>0.09561489906269571</v>
+        <v>0.03580326045799609</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02916435782184124</v>
+        <v>0.0497850366576067</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008545189731939502</v>
+        <v>0.002573035726711025</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9740014965255881</v>
+        <v>1.748690524126239</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.069516679735301</v>
+        <v>0.8904102881414246</v>
       </c>
       <c r="L5">
-        <v>0.2279095062876593</v>
+        <v>0.2437233960554721</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.684199862660144</v>
+        <v>2.93810418827735</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.108321423538683</v>
+        <v>1.091083403256789</v>
       </c>
       <c r="C6">
-        <v>0.09490470593067357</v>
+        <v>0.03560096596370954</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02904190097100212</v>
+        <v>0.04976661563880391</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000854792657326841</v>
+        <v>0.002573212907294287</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9733326121031141</v>
+        <v>1.748878322945778</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.062553530872691</v>
+        <v>0.8887665978009807</v>
       </c>
       <c r="L6">
-        <v>0.2266193162945314</v>
+        <v>0.2434469343091621</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.686425505116162</v>
+        <v>2.939002605072119</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.156925698035479</v>
+        <v>1.102033552432886</v>
       </c>
       <c r="C7">
-        <v>0.09984766564099345</v>
+        <v>0.03700663007612093</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02989511513054666</v>
+        <v>0.0498965521973247</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008529035763496262</v>
+        <v>0.00257199437597144</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9781109263753436</v>
+        <v>1.747638624941679</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.111009327847739</v>
+        <v>0.90022586251294</v>
       </c>
       <c r="L7">
-        <v>0.2356037381789378</v>
+        <v>0.2453789878622388</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.671134646329641</v>
+        <v>2.932836963471047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.374733575487056</v>
+        <v>1.151801751470458</v>
       </c>
       <c r="C8">
-        <v>0.1220343172650331</v>
+        <v>0.04324779679421908</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03374488360567263</v>
+        <v>0.05052119622875928</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008448237498513582</v>
+        <v>0.00256689607561944</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.002704239540634</v>
+        <v>1.74374852240777</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.328202358193892</v>
+        <v>0.9520373686662822</v>
       </c>
       <c r="L8">
-        <v>0.2760294493037065</v>
+        <v>0.2542291761806581</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.60766618549146</v>
+        <v>2.907371357603125</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.816773279845137</v>
+        <v>1.254599708302663</v>
       </c>
       <c r="C9">
-        <v>0.1673299235197163</v>
+        <v>0.05563144357428484</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04164904283069149</v>
+        <v>0.05192979600561998</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008298411276653348</v>
+        <v>0.002557893611445314</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.065153986068466</v>
+        <v>1.741810608963597</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.769398972835063</v>
+        <v>1.058124315259988</v>
       </c>
       <c r="L9">
-        <v>0.3587303271718554</v>
+        <v>0.2727529487186899</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.49874274628867</v>
+        <v>2.8637053167445</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.153755307401127</v>
+        <v>1.33331006234647</v>
       </c>
       <c r="C10">
-        <v>0.2021666229594672</v>
+        <v>0.06482577282906732</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04772514099262182</v>
+        <v>0.05307639177306811</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008192972468217005</v>
+        <v>0.002551879790931882</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.121396826646333</v>
+        <v>1.743868429022648</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.106214053927175</v>
+        <v>1.138824952206505</v>
       </c>
       <c r="L10">
-        <v>0.4222356099723754</v>
+        <v>0.2870794454794918</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.42937383733107</v>
+        <v>2.835456790334874</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.310481265397812</v>
+        <v>1.369812482673467</v>
       </c>
       <c r="C11">
-        <v>0.2184700517006064</v>
+        <v>0.06903111565981135</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05056059192068219</v>
+        <v>0.05362221722349503</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008145862484557984</v>
+        <v>0.002549272918055439</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.149651426622697</v>
+        <v>1.745563482994228</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.263021086290593</v>
+        <v>1.176142722718879</v>
       </c>
       <c r="L11">
-        <v>0.4518836561153279</v>
+        <v>0.2937537843692581</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.400424942999152</v>
+        <v>2.82344018034766</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.370393713794613</v>
+        <v>1.383735265837515</v>
       </c>
       <c r="C12">
-        <v>0.2247202312102701</v>
+        <v>0.07062697020795383</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05164574433118574</v>
+        <v>0.05383238455114281</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000812813236929893</v>
+        <v>0.002548304186005467</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.160773440154315</v>
+        <v>1.746314697063468</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.3229924328989</v>
+        <v>1.190361511656306</v>
       </c>
       <c r="L12">
-        <v>0.4632346418150206</v>
+        <v>0.2963038347211437</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.389865433859967</v>
+        <v>2.819009909522578</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.357464228510196</v>
+        <v>1.380732294115205</v>
       </c>
       <c r="C13">
-        <v>0.2233705589160451</v>
+        <v>0.07028312226924527</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05141150941200578</v>
+        <v>0.05378696685423634</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008131946228744743</v>
+        <v>0.002548512001502958</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.158358660907382</v>
+        <v>1.746148043805263</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.310048912053929</v>
+        <v>1.187295353688626</v>
       </c>
       <c r="L13">
-        <v>0.4607842425057953</v>
+        <v>0.2957536291602878</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.392121223233715</v>
+        <v>2.81995869931184</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.315398572654772</v>
+        <v>1.370955912495106</v>
       </c>
       <c r="C14">
-        <v>0.2189826597610676</v>
+        <v>0.06916233918300918</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05064963198254446</v>
+        <v>0.05363943822503003</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008144401706046307</v>
+        <v>0.002549192850786604</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.150557735770917</v>
+        <v>1.745623093460139</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.267942639444982</v>
+        <v>1.177310759501864</v>
       </c>
       <c r="L14">
-        <v>0.4528149355007827</v>
+        <v>0.2939631249942494</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.399547962995754</v>
+        <v>2.823073289630742</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.289707765047183</v>
+        <v>1.364980631499861</v>
       </c>
       <c r="C15">
-        <v>0.2163052394006684</v>
+        <v>0.06847627078911955</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05018448468809922</v>
+        <v>0.05354952495321541</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000815204487250378</v>
+        <v>0.002549612288642018</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.14583569654009</v>
+        <v>1.745315790690569</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.242230803172475</v>
+        <v>1.171206287790824</v>
       </c>
       <c r="L15">
-        <v>0.4479501043238514</v>
+        <v>0.29286933647235</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.404150389488152</v>
+        <v>2.824996722160492</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.143587796594488</v>
+        <v>1.33093855598446</v>
       </c>
       <c r="C16">
-        <v>0.2011112334361229</v>
+        <v>0.0645514114135608</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04754137127446612</v>
+        <v>0.05304120760520803</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000819606728931536</v>
+        <v>0.002552052740904948</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.119607263333748</v>
+        <v>1.743772942031157</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.096044869625445</v>
+        <v>1.136398365890244</v>
       </c>
       <c r="L16">
-        <v>0.4203145452493828</v>
+        <v>0.2866464260690265</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.431320500949781</v>
+        <v>2.836258904177015</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.054874630791744</v>
+        <v>1.310233228774734</v>
       </c>
       <c r="C17">
-        <v>0.1919143681768816</v>
+        <v>0.06214955005272316</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04593898825091358</v>
+        <v>0.05273557120636596</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008223283307291481</v>
+        <v>0.002553582812692701</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.104227059031011</v>
+        <v>1.743020977914099</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.007335246121954</v>
+        <v>1.115200296324105</v>
       </c>
       <c r="L17">
-        <v>0.403565519264248</v>
+        <v>0.2828691385453652</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.448675248465179</v>
+        <v>2.843381624981433</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.004167518653276</v>
+        <v>1.298389651558864</v>
       </c>
       <c r="C18">
-        <v>0.1866667852231529</v>
+        <v>0.06077020233929886</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04502398525674067</v>
+        <v>0.05256205875512521</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.000823901856304698</v>
+        <v>0.002554475002516366</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.095629497586998</v>
+        <v>1.742659891027564</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.956644577642777</v>
+        <v>1.103064819976737</v>
       </c>
       <c r="L18">
-        <v>0.394002416557754</v>
+        <v>0.2807113321613031</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.458900830012269</v>
+        <v>2.847556889539376</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.987051607450553</v>
+        <v>1.294390885480652</v>
       </c>
       <c r="C19">
-        <v>0.1848969814631403</v>
+        <v>0.06030354318097864</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04471528863151519</v>
+        <v>0.05250370256947079</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008244360607208668</v>
+        <v>0.002554779169266162</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.092760110935288</v>
+        <v>1.742549894183682</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.939536547674919</v>
+        <v>1.098965758224608</v>
       </c>
       <c r="L19">
-        <v>0.3907761952655875</v>
+        <v>0.2799832753283056</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.462404069303645</v>
+        <v>2.848984030778681</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.064284862690215</v>
+        <v>1.312430559537518</v>
       </c>
       <c r="C20">
-        <v>0.1928889466050805</v>
+        <v>0.06240501012023003</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04610886881684095</v>
+        <v>0.05276787066430089</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008220377792609387</v>
+        <v>0.002553418678900651</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.105838297425535</v>
+        <v>1.743093632328581</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.016743571345813</v>
+        <v>1.117450957266755</v>
       </c>
       <c r="L20">
-        <v>0.4053410835003035</v>
+        <v>0.2832697064091576</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.446802402442145</v>
+        <v>2.842615276577973</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.327738380498204</v>
+        <v>1.37382475639339</v>
       </c>
       <c r="C21">
-        <v>0.2202693256967336</v>
+        <v>0.06949144770723592</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05087309389514161</v>
+        <v>0.05368267672334426</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008140740374638869</v>
+        <v>0.002548992369294885</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.152837258851704</v>
+        <v>1.74577431520477</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.280293564028653</v>
+        <v>1.180241104923397</v>
       </c>
       <c r="L21">
-        <v>0.4551522264494707</v>
+        <v>0.2944884252749631</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.397355380903363</v>
+        <v>2.822155195779288</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.503244194533693</v>
+        <v>1.414532893899036</v>
       </c>
       <c r="C22">
-        <v>0.2386153535672548</v>
+        <v>0.07414260902318404</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05405402368735324</v>
+        <v>0.05430080637237822</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.000808932325999649</v>
+        <v>0.002546206927272121</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.186037975785908</v>
+        <v>1.748163673237684</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.456029895212879</v>
+        <v>1.221787354038383</v>
       </c>
       <c r="L22">
-        <v>0.4884368701581252</v>
+        <v>0.3019523839018348</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.367401853163642</v>
+        <v>2.809483851147789</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.40924420157387</v>
+        <v>1.392752829034578</v>
       </c>
       <c r="C23">
-        <v>0.2287785363179182</v>
+        <v>0.07165835353360706</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05234973756621741</v>
+        <v>0.0539690491328777</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008116712643001511</v>
+        <v>0.002547683773009156</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.168076979624715</v>
+        <v>1.746830041127239</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.36188951090972</v>
+        <v>1.1995666992743</v>
       </c>
       <c r="L23">
-        <v>0.4706001596315872</v>
+        <v>0.2979566530769659</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.383162423179087</v>
+        <v>2.816182602815203</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.060029582382924</v>
+        <v>1.311436958801778</v>
       </c>
       <c r="C24">
-        <v>0.192448216480642</v>
+        <v>0.06228951191567944</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04603204649948367</v>
+        <v>0.05275326122012558</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008221691099629307</v>
+        <v>0.002553492844691418</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.105109097171415</v>
+        <v>1.743060563399986</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.012489108587289</v>
+        <v>1.116433272809644</v>
       </c>
       <c r="L24">
-        <v>0.4045381460088038</v>
+        <v>0.2830885666765539</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.447648345406478</v>
+        <v>2.842961492499072</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.695286937519541</v>
+        <v>1.226231833635154</v>
       </c>
       <c r="C25">
-        <v>0.1548392106207643</v>
+        <v>0.05226503726890996</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03946760031139718</v>
+        <v>0.05152909770908209</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008338081167846941</v>
+        <v>0.002560223134609817</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.046571582539649</v>
+        <v>1.741724375130893</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.648079472835889</v>
+        <v>1.028942348323596</v>
       </c>
       <c r="L25">
-        <v>0.3359263904377201</v>
+        <v>0.2676161924353266</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.526430318328408</v>
+        <v>2.874845733845333</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_216/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.165638061119211</v>
+        <v>1.434651755948323</v>
       </c>
       <c r="C2">
-        <v>0.04494834593693042</v>
+        <v>0.1281508971487995</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05070288413446633</v>
+        <v>0.03481017965544453</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002565582288970012</v>
+        <v>0.0008426949695288233</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.743079149791846</v>
+        <v>1.010272656837337</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9663782970679051</v>
+        <v>1.387970728152197</v>
       </c>
       <c r="L2">
-        <v>0.2567060454407226</v>
+        <v>0.287192221577115</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.900895565848131</v>
+        <v>1.591480732383673</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.12590394751075</v>
+        <v>1.261927117803708</v>
       </c>
       <c r="C3">
-        <v>0.04002713358481458</v>
+        <v>0.1105350776502121</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05018988964175719</v>
+        <v>0.03174613701157902</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002569468254315551</v>
+        <v>0.0008489358954229449</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.745451868291909</v>
+        <v>0.989358177232603</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9251258962553948</v>
+        <v>1.215702217396</v>
       </c>
       <c r="L3">
-        <v>0.2496110860395646</v>
+        <v>0.2550607044891251</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.920152422369171</v>
+        <v>1.639570781654093</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.102162474457373</v>
+        <v>1.157496118403628</v>
       </c>
       <c r="C4">
-        <v>0.03702309864640085</v>
+        <v>0.09990568994808768</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04989810068810385</v>
+        <v>0.02990514291390056</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002571980270614005</v>
+        <v>0.0008528816146657834</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.747624983234104</v>
+        <v>0.9781686872001458</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9003606299513081</v>
+        <v>1.1115780235709</v>
       </c>
       <c r="L4">
-        <v>0.245401772636427</v>
+        <v>0.2357092658934761</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.932765770687595</v>
+        <v>1.670957867787848</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.092652554004417</v>
+        <v>1.115306078924647</v>
       </c>
       <c r="C5">
-        <v>0.03580326045799609</v>
+        <v>0.09561489906253939</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0497850366576067</v>
+        <v>0.02916435782180749</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002573035726711025</v>
+        <v>0.000854518973156407</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.748690524126239</v>
+        <v>0.9740014965256023</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8904102881414246</v>
+        <v>1.069516679735301</v>
       </c>
       <c r="L5">
-        <v>0.2437233960554721</v>
+        <v>0.2279095062877445</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.93810418827735</v>
+        <v>1.684199862660215</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.091083403256789</v>
+        <v>1.10832142353874</v>
       </c>
       <c r="C6">
-        <v>0.03560096596370954</v>
+        <v>0.09490470593081568</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04976661563880391</v>
+        <v>0.0290419009710039</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002573212907294287</v>
+        <v>0.0008547926572962345</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.748878322945778</v>
+        <v>0.9733326121031141</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8887665978009807</v>
+        <v>1.062553530872606</v>
       </c>
       <c r="L6">
-        <v>0.2434469343091621</v>
+        <v>0.2266193162945171</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.939002605072119</v>
+        <v>1.686425505116141</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.102033552432886</v>
+        <v>1.156925698035479</v>
       </c>
       <c r="C7">
-        <v>0.03700663007612093</v>
+        <v>0.09984766564097924</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0498965521973247</v>
+        <v>0.02989511513056264</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00257199437597144</v>
+        <v>0.0008529035763182868</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.747638624941679</v>
+        <v>0.9781109263753152</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.90022586251294</v>
+        <v>1.111009327847768</v>
       </c>
       <c r="L7">
-        <v>0.2453789878622388</v>
+        <v>0.2356037381789662</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.932836963471047</v>
+        <v>1.671134646329612</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.151801751470458</v>
+        <v>1.374733575487141</v>
       </c>
       <c r="C8">
-        <v>0.04324779679421908</v>
+        <v>0.1220343172650331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05052119622875928</v>
+        <v>0.03374488360563888</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00256689607561944</v>
+        <v>0.0008448237498414189</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.74374852240777</v>
+        <v>1.002704239540634</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9520373686662822</v>
+        <v>1.328202358193835</v>
       </c>
       <c r="L8">
-        <v>0.2542291761806581</v>
+        <v>0.2760294493036923</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.907371357603125</v>
+        <v>1.60766618549146</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.254599708302663</v>
+        <v>1.816773279845307</v>
       </c>
       <c r="C9">
-        <v>0.05563144357428484</v>
+        <v>0.1673299235198584</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05192979600561998</v>
+        <v>0.04164904283066306</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002557893611445314</v>
+        <v>0.0008298411277067498</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.741810608963597</v>
+        <v>1.065153986068488</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.058124315259988</v>
+        <v>1.769398972834978</v>
       </c>
       <c r="L9">
-        <v>0.2727529487186899</v>
+        <v>0.3587303271719975</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.8637053167445</v>
+        <v>1.498742746288599</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.33331006234647</v>
+        <v>2.153755307401127</v>
       </c>
       <c r="C10">
-        <v>0.06482577282906732</v>
+        <v>0.2021666229594814</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05307639177306811</v>
+        <v>0.04772514099260761</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002551879790931882</v>
+        <v>0.0008192972467943446</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.743868429022648</v>
+        <v>1.12139682664634</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.138824952206505</v>
+        <v>2.106214053927232</v>
       </c>
       <c r="L10">
-        <v>0.2870794454794918</v>
+        <v>0.4222356099724323</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.835456790334874</v>
+        <v>1.429373837331028</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.369812482673467</v>
+        <v>2.310481265397755</v>
       </c>
       <c r="C11">
-        <v>0.06903111565981135</v>
+        <v>0.2184700517004217</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05362221722349503</v>
+        <v>0.05056059192069284</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002549272918055439</v>
+        <v>0.0008145862484714334</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.745563482994228</v>
+        <v>1.149651426622697</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.176142722718879</v>
+        <v>2.263021086290763</v>
       </c>
       <c r="L11">
-        <v>0.2937537843692581</v>
+        <v>0.4518836561152852</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.82344018034766</v>
+        <v>1.400424942999109</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.383735265837515</v>
+        <v>2.370393713794556</v>
       </c>
       <c r="C12">
-        <v>0.07062697020795383</v>
+        <v>0.224720231210199</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05383238455114281</v>
+        <v>0.05164574433112179</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002548304186005467</v>
+        <v>0.0008128132369486968</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.746314697063468</v>
+        <v>1.160773440154315</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.190361511656306</v>
+        <v>2.322992432898985</v>
       </c>
       <c r="L12">
-        <v>0.2963038347211437</v>
+        <v>0.4632346418148501</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.819009909522578</v>
+        <v>1.389865433860038</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.380732294115205</v>
+        <v>2.357464228510139</v>
       </c>
       <c r="C13">
-        <v>0.07028312226924527</v>
+        <v>0.2233705589158745</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05378696685423634</v>
+        <v>0.05141150941200578</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002548512001502958</v>
+        <v>0.0008131946228754843</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.746148043805263</v>
+        <v>1.158358660907354</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.187295353688626</v>
+        <v>2.310048912053929</v>
       </c>
       <c r="L13">
-        <v>0.2957536291602878</v>
+        <v>0.4607842425058806</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.81995869931184</v>
+        <v>1.39212122323373</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370955912495106</v>
+        <v>2.315398572654885</v>
       </c>
       <c r="C14">
-        <v>0.06916233918300918</v>
+        <v>0.2189826597614228</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05363943822503003</v>
+        <v>0.05064963198256578</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002549192850786604</v>
+        <v>0.0008144401705262926</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.745623093460139</v>
+        <v>1.150557735770931</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.177310759501864</v>
+        <v>2.267942639444954</v>
       </c>
       <c r="L14">
-        <v>0.2939631249942494</v>
+        <v>0.4528149355008253</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.823073289630742</v>
+        <v>1.399547962995769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.364980631499861</v>
+        <v>2.289707765047069</v>
       </c>
       <c r="C15">
-        <v>0.06847627078911955</v>
+        <v>0.2163052394007821</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05354952495321541</v>
+        <v>0.05018448468812409</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002549612288642018</v>
+        <v>0.000815204487295984</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.745315790690569</v>
+        <v>1.14583569654009</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.171206287790824</v>
+        <v>2.242230803172419</v>
       </c>
       <c r="L15">
-        <v>0.29286933647235</v>
+        <v>0.4479501043237377</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.824996722160492</v>
+        <v>1.404150389488223</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.33093855598446</v>
+        <v>2.143587796594488</v>
       </c>
       <c r="C16">
-        <v>0.0645514114135608</v>
+        <v>0.2011112334359098</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05304120760520803</v>
+        <v>0.04754137127450164</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002552052740904948</v>
+        <v>0.0008196067290036599</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.743772942031157</v>
+        <v>1.119607263333762</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.136398365890244</v>
+        <v>2.096044869625473</v>
       </c>
       <c r="L16">
-        <v>0.2866464260690265</v>
+        <v>0.4203145452494113</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.836258904177015</v>
+        <v>1.431320500949809</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.310233228774734</v>
+        <v>2.054874630791687</v>
       </c>
       <c r="C17">
-        <v>0.06214955005272316</v>
+        <v>0.1919143681766826</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05273557120636596</v>
+        <v>0.04593898825087805</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002553582812692701</v>
+        <v>0.0008223283306976522</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.743020977914099</v>
+        <v>1.104227059031004</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.115200296324105</v>
+        <v>2.007335246121926</v>
       </c>
       <c r="L17">
-        <v>0.2828691385453652</v>
+        <v>0.4035655192641769</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.843381624981433</v>
+        <v>1.448675248465108</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.298389651558864</v>
+        <v>2.004167518653333</v>
       </c>
       <c r="C18">
-        <v>0.06077020233929886</v>
+        <v>0.1866667852229824</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05256205875512521</v>
+        <v>0.04502398525674067</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002554475002516366</v>
+        <v>0.0008239018562010258</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.742659891027564</v>
+        <v>1.095629497586998</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.103064819976737</v>
+        <v>1.956644577642749</v>
       </c>
       <c r="L18">
-        <v>0.2807113321613031</v>
+        <v>0.3940024165577825</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.847556889539376</v>
+        <v>1.458900830012269</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.294390885480652</v>
+        <v>1.987051607450439</v>
       </c>
       <c r="C19">
-        <v>0.06030354318097864</v>
+        <v>0.1848969814632397</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05250370256947079</v>
+        <v>0.04471528863151519</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002554779169266162</v>
+        <v>0.0008244360607644371</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.742549894183682</v>
+        <v>1.092760110935338</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.098965758224608</v>
+        <v>1.939536547675061</v>
       </c>
       <c r="L19">
-        <v>0.2799832753283056</v>
+        <v>0.3907761952656301</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.848984030778681</v>
+        <v>1.462404069303631</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.312430559537518</v>
+        <v>2.064284862690045</v>
       </c>
       <c r="C20">
-        <v>0.06240501012023003</v>
+        <v>0.1928889466049242</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05276787066430089</v>
+        <v>0.04610886881684095</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002553418678900651</v>
+        <v>0.0008220377793052407</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.743093632328581</v>
+        <v>1.105838297425542</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.117450957266755</v>
+        <v>2.016743571345756</v>
       </c>
       <c r="L20">
-        <v>0.2832697064091576</v>
+        <v>0.4053410835002325</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.842615276577973</v>
+        <v>1.446802402442145</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.37382475639339</v>
+        <v>2.327738380498147</v>
       </c>
       <c r="C21">
-        <v>0.06949144770723592</v>
+        <v>0.2202693256967336</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05368267672334426</v>
+        <v>0.05087309389513095</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002548992369294885</v>
+        <v>0.0008140740374634669</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.74577431520477</v>
+        <v>1.152837258851733</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.180241104923397</v>
+        <v>2.280293564028597</v>
       </c>
       <c r="L21">
-        <v>0.2944884252749631</v>
+        <v>0.4551522264495702</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.822155195779288</v>
+        <v>1.397355380903377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.414532893899036</v>
+        <v>2.50324419453375</v>
       </c>
       <c r="C22">
-        <v>0.07414260902318404</v>
+        <v>0.238615353567269</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05430080637237822</v>
+        <v>0.05405402368731416</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002546206927272121</v>
+        <v>0.0008089323260010851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.748163673237684</v>
+        <v>1.186037975785879</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.221787354038383</v>
+        <v>2.456029895212879</v>
       </c>
       <c r="L22">
-        <v>0.3019523839018348</v>
+        <v>0.4884368701581963</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.809483851147789</v>
+        <v>1.367401853163656</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.392752829034578</v>
+        <v>2.409244201573813</v>
       </c>
       <c r="C23">
-        <v>0.07165835353360706</v>
+        <v>0.2287785363181172</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0539690491328777</v>
+        <v>0.05234973756616768</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002547683773009156</v>
+        <v>0.0008116712643020221</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.746830041127239</v>
+        <v>1.168076979624743</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.1995666992743</v>
+        <v>2.361889510909663</v>
       </c>
       <c r="L23">
-        <v>0.2979566530769659</v>
+        <v>0.4706001596315446</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.816182602815203</v>
+        <v>1.38316242317913</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.311436958801778</v>
+        <v>2.060029582382867</v>
       </c>
       <c r="C24">
-        <v>0.06228951191567944</v>
+        <v>0.1924482164807273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05275326122012558</v>
+        <v>0.04603204649949433</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002553492844691418</v>
+        <v>0.0008221691099306148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.743060563399986</v>
+        <v>1.105109097171429</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.116433272809644</v>
+        <v>2.012489108587317</v>
       </c>
       <c r="L24">
-        <v>0.2830885666765539</v>
+        <v>0.4045381460087754</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.842961492499072</v>
+        <v>1.447648345406549</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.226231833635154</v>
+        <v>1.695286937519711</v>
       </c>
       <c r="C25">
-        <v>0.05226503726890996</v>
+        <v>0.154839210620608</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05152909770908209</v>
+        <v>0.0394676003113581</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002560223134609817</v>
+        <v>0.0008338081168144787</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.741724375130893</v>
+        <v>1.04657158253967</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.028942348323596</v>
+        <v>1.64807947283586</v>
       </c>
       <c r="L25">
-        <v>0.2676161924353266</v>
+        <v>0.3359263904378338</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.874845733845333</v>
+        <v>1.526430318328373</v>
       </c>
       <c r="O25">
         <v>0</v>
